--- a/documentacion/Tabla de direccionamiento.xlsx
+++ b/documentacion/Tabla de direccionamiento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando Hernandez\Desktop\ITQ\6to Semestre\Redes de computadoras\StudyCase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidmoralm/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA138B13-8AF4-4D76-8DB7-327EE42960EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B564E3-9359-7747-90EF-1AF564F927B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{72A1E919-7CE9-4C61-B3EB-E6BC929EB474}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13180" xr2:uid="{72A1E919-7CE9-4C61-B3EB-E6BC929EB474}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>VLANS</t>
   </si>
@@ -39,9 +50,6 @@
     <t>Hosts</t>
   </si>
   <si>
-    <t>Ip</t>
-  </si>
-  <si>
     <t>SALES</t>
   </si>
   <si>
@@ -58,6 +66,45 @@
   </si>
   <si>
     <t>NATIVE</t>
+  </si>
+  <si>
+    <t>Ip David</t>
+  </si>
+  <si>
+    <t>Ip Fernando</t>
+  </si>
+  <si>
+    <t>10.255.251.128 /25</t>
+  </si>
+  <si>
+    <t>10.255.252.0 /23</t>
+  </si>
+  <si>
+    <t>10.255.251.64 /26</t>
+  </si>
+  <si>
+    <t>10.255.254.0 /23</t>
+  </si>
+  <si>
+    <t>Total Hosts</t>
+  </si>
+  <si>
+    <t>10.255.243.128 /25</t>
+  </si>
+  <si>
+    <t>10.255.246.0 /23</t>
+  </si>
+  <si>
+    <t>10.255.243.64 /26</t>
+  </si>
+  <si>
+    <t>10.255.244.0 /23</t>
+  </si>
+  <si>
+    <t>10.255.251.32 /27</t>
+  </si>
+  <si>
+    <t>10.255.243.32 /27</t>
   </si>
 </sst>
 </file>
@@ -73,12 +120,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,11 +146,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,19 +469,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA00FB1-1B85-409E-BAFC-DE01464358F9}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +490,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -443,70 +501,110 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="F8">
+        <v>1248</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/documentacion/Tabla de direccionamiento.xlsx
+++ b/documentacion/Tabla de direccionamiento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidmoralm/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidmoralm/Desktop/StudyCase/documentacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B564E3-9359-7747-90EF-1AF564F927B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2300440A-6B6D-EB4B-BC95-D81DD43B93AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13180" xr2:uid="{72A1E919-7CE9-4C61-B3EB-E6BC929EB474}"/>
+    <workbookView xWindow="8440" yWindow="520" windowWidth="23260" windowHeight="13180" xr2:uid="{72A1E919-7CE9-4C61-B3EB-E6BC929EB474}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -149,12 +149,12 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -483,12 +483,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -514,7 +514,7 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>100</v>
       </c>
       <c r="D3" t="s">
@@ -531,7 +531,7 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>300</v>
       </c>
       <c r="D4" t="s">
@@ -548,7 +548,7 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>50</v>
       </c>
       <c r="D5" t="s">
@@ -565,7 +565,7 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>500</v>
       </c>
       <c r="D6" t="s">
@@ -582,7 +582,7 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>20</v>
       </c>
       <c r="D7" t="s">
@@ -599,7 +599,7 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="1"/>
       <c r="F8">
         <v>1248</v>
       </c>
